--- a/참고자료/GRADE-학생정보(2019-10-10).xlsx
+++ b/참고자료/GRADE-학생정보(2019-10-10).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="318">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,307 @@
   <si>
     <t>학과</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-111-1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-111-1112</t>
+  </si>
+  <si>
+    <t>010-111-1113</t>
+  </si>
+  <si>
+    <t>010-111-1114</t>
+  </si>
+  <si>
+    <t>010-111-1115</t>
+  </si>
+  <si>
+    <t>010-111-1116</t>
+  </si>
+  <si>
+    <t>010-111-1117</t>
+  </si>
+  <si>
+    <t>010-111-1118</t>
+  </si>
+  <si>
+    <t>010-111-1119</t>
+  </si>
+  <si>
+    <t>010-111-1120</t>
+  </si>
+  <si>
+    <t>010-111-1121</t>
+  </si>
+  <si>
+    <t>010-111-1122</t>
+  </si>
+  <si>
+    <t>010-111-1123</t>
+  </si>
+  <si>
+    <t>010-111-1124</t>
+  </si>
+  <si>
+    <t>010-111-1125</t>
+  </si>
+  <si>
+    <t>010-111-1126</t>
+  </si>
+  <si>
+    <t>010-111-1127</t>
+  </si>
+  <si>
+    <t>010-111-1128</t>
+  </si>
+  <si>
+    <t>010-111-1129</t>
+  </si>
+  <si>
+    <t>010-111-1130</t>
+  </si>
+  <si>
+    <t>010-111-1131</t>
+  </si>
+  <si>
+    <t>010-111-1132</t>
+  </si>
+  <si>
+    <t>010-111-1133</t>
+  </si>
+  <si>
+    <t>010-111-1134</t>
+  </si>
+  <si>
+    <t>010-111-1135</t>
+  </si>
+  <si>
+    <t>010-111-1136</t>
+  </si>
+  <si>
+    <t>010-111-1137</t>
+  </si>
+  <si>
+    <t>010-111-1138</t>
+  </si>
+  <si>
+    <t>010-111-1139</t>
+  </si>
+  <si>
+    <t>010-111-1140</t>
+  </si>
+  <si>
+    <t>010-111-1141</t>
+  </si>
+  <si>
+    <t>010-111-1142</t>
+  </si>
+  <si>
+    <t>010-111-1143</t>
+  </si>
+  <si>
+    <t>010-111-1144</t>
+  </si>
+  <si>
+    <t>010-111-1145</t>
+  </si>
+  <si>
+    <t>010-111-1146</t>
+  </si>
+  <si>
+    <t>010-111-1147</t>
+  </si>
+  <si>
+    <t>010-111-1148</t>
+  </si>
+  <si>
+    <t>010-111-1149</t>
+  </si>
+  <si>
+    <t>010-111-1150</t>
+  </si>
+  <si>
+    <t>010-111-1151</t>
+  </si>
+  <si>
+    <t>010-111-1152</t>
+  </si>
+  <si>
+    <t>010-111-1153</t>
+  </si>
+  <si>
+    <t>010-111-1154</t>
+  </si>
+  <si>
+    <t>010-111-1155</t>
+  </si>
+  <si>
+    <t>010-111-1156</t>
+  </si>
+  <si>
+    <t>010-111-1157</t>
+  </si>
+  <si>
+    <t>010-111-1158</t>
+  </si>
+  <si>
+    <t>010-111-1159</t>
+  </si>
+  <si>
+    <t>010-111-1160</t>
+  </si>
+  <si>
+    <t>010-111-1161</t>
+  </si>
+  <si>
+    <t>010-111-1162</t>
+  </si>
+  <si>
+    <t>010-111-1163</t>
+  </si>
+  <si>
+    <t>010-111-1164</t>
+  </si>
+  <si>
+    <t>010-111-1165</t>
+  </si>
+  <si>
+    <t>010-111-1166</t>
+  </si>
+  <si>
+    <t>010-111-1167</t>
+  </si>
+  <si>
+    <t>010-111-1168</t>
+  </si>
+  <si>
+    <t>010-111-1169</t>
+  </si>
+  <si>
+    <t>010-111-1170</t>
+  </si>
+  <si>
+    <t>010-111-1171</t>
+  </si>
+  <si>
+    <t>010-111-1172</t>
+  </si>
+  <si>
+    <t>010-111-1173</t>
+  </si>
+  <si>
+    <t>010-111-1174</t>
+  </si>
+  <si>
+    <t>010-111-1175</t>
+  </si>
+  <si>
+    <t>010-111-1176</t>
+  </si>
+  <si>
+    <t>010-111-1177</t>
+  </si>
+  <si>
+    <t>010-111-1178</t>
+  </si>
+  <si>
+    <t>010-111-1179</t>
+  </si>
+  <si>
+    <t>010-111-1180</t>
+  </si>
+  <si>
+    <t>010-111-1181</t>
+  </si>
+  <si>
+    <t>010-111-1182</t>
+  </si>
+  <si>
+    <t>010-111-1183</t>
+  </si>
+  <si>
+    <t>010-111-1184</t>
+  </si>
+  <si>
+    <t>010-111-1185</t>
+  </si>
+  <si>
+    <t>010-111-1186</t>
+  </si>
+  <si>
+    <t>010-111-1187</t>
+  </si>
+  <si>
+    <t>010-111-1188</t>
+  </si>
+  <si>
+    <t>010-111-1189</t>
+  </si>
+  <si>
+    <t>010-111-1190</t>
+  </si>
+  <si>
+    <t>010-111-1191</t>
+  </si>
+  <si>
+    <t>010-111-1192</t>
+  </si>
+  <si>
+    <t>010-111-1193</t>
+  </si>
+  <si>
+    <t>010-111-1194</t>
+  </si>
+  <si>
+    <t>010-111-1195</t>
+  </si>
+  <si>
+    <t>010-111-1196</t>
+  </si>
+  <si>
+    <t>010-111-1197</t>
+  </si>
+  <si>
+    <t>010-111-1198</t>
+  </si>
+  <si>
+    <t>010-111-1199</t>
+  </si>
+  <si>
+    <t>010-111-1200</t>
+  </si>
+  <si>
+    <t>010-111-1201</t>
+  </si>
+  <si>
+    <t>010-111-1202</t>
+  </si>
+  <si>
+    <t>010-111-1203</t>
+  </si>
+  <si>
+    <t>010-111-1204</t>
+  </si>
+  <si>
+    <t>010-111-1205</t>
+  </si>
+  <si>
+    <t>010-111-1206</t>
+  </si>
+  <si>
+    <t>010-111-1207</t>
+  </si>
+  <si>
+    <t>010-111-1208</t>
+  </si>
+  <si>
+    <t>010-111-1209</t>
+  </si>
+  <si>
+    <t>010-111-1210</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1020,13 +1321,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1056,17 +1358,20 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,4)</f>
         <v>2</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"00"&amp;F2</f>
-        <v>001</v>
+        <v>004</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1076,17 +1381,20 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" ca="1" si="2">"00"&amp;F3</f>
-        <v>001</v>
+        <v>003</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1096,17 +1404,20 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>005</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1116,17 +1427,20 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>002</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1136,9 +1450,12 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
@@ -1156,17 +1473,20 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1176,9 +1496,12 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
@@ -1196,9 +1519,12 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
@@ -1216,6 +1542,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -1236,17 +1565,20 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1256,17 +1588,20 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>005</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1276,17 +1611,20 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1296,17 +1634,20 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>002</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1316,17 +1657,20 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>002</v>
+        <v>003</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1336,17 +1680,20 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>002</v>
+        <v>003</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1356,17 +1703,20 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>001</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1376,17 +1726,20 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>001</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1396,9 +1749,12 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
@@ -1416,17 +1772,20 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>003</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1436,17 +1795,20 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>004</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1456,17 +1818,20 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>002</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1476,17 +1841,20 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>002</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1496,17 +1864,20 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1516,17 +1887,20 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1536,6 +1910,9 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -1556,9 +1933,12 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
@@ -1576,17 +1956,20 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>002</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1596,6 +1979,9 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -1616,17 +2002,20 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>002</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1636,17 +2025,20 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>005</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1656,17 +2048,20 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>004</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1676,17 +2071,20 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>004</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1696,9 +2094,12 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>250</v>
+      </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
@@ -1716,17 +2117,20 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>005</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1736,17 +2140,20 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>252</v>
+      </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>004</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1756,17 +2163,20 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>001</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1776,17 +2186,20 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="G38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1796,17 +2209,20 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>004</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1816,17 +2232,20 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1836,17 +2255,20 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1856,17 +2278,20 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>258</v>
+      </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>003</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1876,17 +2301,20 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>259</v>
+      </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>001</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1896,17 +2324,20 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>001</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1916,17 +2347,20 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>001</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1936,17 +2370,20 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>262</v>
+      </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>004</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1956,17 +2393,20 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>003</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1976,17 +2416,20 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>264</v>
+      </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>005</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1996,17 +2439,20 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>265</v>
+      </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>002</v>
+        <v>001</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2016,17 +2462,20 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>005</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2036,17 +2485,20 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>001</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2056,17 +2508,20 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2076,6 +2531,9 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -2096,17 +2554,20 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>002</v>
+        <v>004</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2116,17 +2577,20 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>001</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2136,17 +2600,20 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>004</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2156,17 +2623,20 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>273</v>
+      </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>003</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2176,6 +2646,9 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>274</v>
+      </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -2196,17 +2669,20 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>005</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2216,17 +2692,20 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>276</v>
+      </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>005</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2236,17 +2715,20 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>005</v>
+        <v>002</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2256,17 +2738,20 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>001</v>
+        <v>004</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2276,17 +2761,20 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>004</v>
+        <v>005</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2296,9 +2784,12 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>280</v>
+      </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="1"/>
@@ -2316,9 +2807,12 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>281</v>
+      </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="1"/>
@@ -2336,17 +2830,20 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>003</v>
+        <v>001</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2356,17 +2853,20 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>283</v>
+      </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="3">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G101" ca="1" si="5">"00"&amp;F67</f>
-        <v>003</v>
+        <v>002</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2376,17 +2876,20 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>003</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2396,17 +2899,20 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>285</v>
+      </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>005</v>
+        <v>004</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2416,17 +2922,20 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>003</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2436,17 +2945,20 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>005</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2456,17 +2968,20 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
       <c r="E72">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>005</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2476,9 +2991,12 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
@@ -2496,9 +3014,12 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>290</v>
+      </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
@@ -2516,9 +3037,12 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>291</v>
+      </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
@@ -2536,17 +3060,20 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>292</v>
+      </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>003</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2556,17 +3083,20 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>293</v>
+      </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>005</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2576,9 +3106,12 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>294</v>
+      </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
@@ -2596,17 +3129,20 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>295</v>
+      </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>002</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2616,9 +3152,12 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
@@ -2636,17 +3175,20 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>004</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2656,17 +3198,20 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
       <c r="E82">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>001</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2676,9 +3221,12 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>299</v>
+      </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
@@ -2696,9 +3244,12 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
@@ -2716,6 +3267,9 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>301</v>
+      </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
@@ -2736,17 +3290,20 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>302</v>
+      </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>001</v>
+        <v>005</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2756,17 +3313,20 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>005</v>
+        <v>002</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2776,17 +3336,20 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>003</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2796,17 +3359,20 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>305</v>
+      </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>003</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2816,17 +3382,20 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>001</v>
+        <v>002</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2836,17 +3405,20 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>003</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2856,9 +3428,12 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>308</v>
+      </c>
       <c r="E92">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
@@ -2876,17 +3451,20 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>309</v>
+      </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>005</v>
+        <v>004</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2896,17 +3474,20 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>310</v>
+      </c>
       <c r="E94">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>005</v>
+        <v>003</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2916,17 +3497,20 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>311</v>
+      </c>
       <c r="E95">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>003</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2936,17 +3520,20 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>003</v>
+        <v>001</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2956,17 +3543,20 @@
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>313</v>
+      </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>004</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2976,17 +3566,20 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>314</v>
+      </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>003</v>
+        <v>004</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2996,17 +3589,20 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
       <c r="E99">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>002</v>
+        <v>005</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3016,17 +3612,20 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>004</v>
+        <v>005</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3036,9 +3635,12 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
@@ -3257,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
@@ -3295,23 +3897,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3323,23 +3925,23 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" ca="1" si="1">SUM(C3:E3)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" ca="1" si="2">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3351,23 +3953,23 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:E23" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3383,19 +3985,19 @@
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3407,23 +4009,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>203</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3435,23 +4037,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3463,23 +4065,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3491,23 +4093,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3519,23 +4121,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3547,23 +4149,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3575,23 +4177,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3603,23 +4205,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3631,23 +4233,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3659,23 +4261,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3687,23 +4289,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3715,23 +4317,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3743,23 +4345,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3771,23 +4373,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3799,23 +4401,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3827,23 +4429,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3855,19 +4457,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22:F85" ca="1" si="4">SUM(C22:E22)</f>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22:G85" ca="1" si="5">ROUND(AVERAGE(C22:E22),0)</f>
@@ -3883,23 +4485,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3911,23 +4513,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E87" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="4"/>
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3939,23 +4541,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3967,23 +4569,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="4"/>
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3995,23 +4597,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="4"/>
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4023,23 +4625,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="6"/>
-        <v>53</v>
-      </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="4"/>
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4051,23 +4653,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="4"/>
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4079,23 +4681,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="5"/>
         <v>90</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="4"/>
-        <v>237</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="5"/>
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4107,23 +4709,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="4"/>
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4135,23 +4737,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="4"/>
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4163,23 +4765,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="4"/>
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4191,23 +4793,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4219,23 +4821,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4247,23 +4849,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4275,23 +4877,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="5"/>
         <v>72</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="4"/>
-        <v>191</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4303,23 +4905,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4331,23 +4933,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4359,23 +4961,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="4"/>
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4387,23 +4989,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4415,23 +5017,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="4"/>
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4443,23 +5045,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="4"/>
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4471,23 +5073,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="4"/>
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4499,23 +5101,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4527,23 +5129,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4555,23 +5157,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4583,23 +5185,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4611,19 +5213,19 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="4"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="5"/>
@@ -4639,23 +5241,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4667,23 +5269,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4695,23 +5297,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4723,7 +5325,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="6"/>
@@ -4735,11 +5337,11 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4751,23 +5353,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4779,11 +5381,11 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="6"/>
@@ -4791,11 +5393,11 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4807,23 +5409,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4839,19 +5441,19 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4863,23 +5465,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4891,23 +5493,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4919,23 +5521,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="6"/>
-        <v>56</v>
-      </c>
       <c r="E60">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4947,23 +5549,23 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4975,23 +5577,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5003,23 +5605,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="6"/>
         <v>84</v>
       </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="6"/>
-        <v>56</v>
-      </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5031,23 +5633,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5059,23 +5661,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5087,23 +5689,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5115,23 +5717,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ca="1" si="5"/>
         <v>79</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ca="1" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ca="1" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ca="1" si="5"/>
-        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5143,23 +5745,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5171,23 +5773,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5199,23 +5801,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5227,23 +5829,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5255,23 +5857,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5283,23 +5885,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5311,23 +5913,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5339,11 +5941,11 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="6"/>
@@ -5351,11 +5953,11 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5367,23 +5969,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5395,23 +5997,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5423,7 +6025,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="6"/>
@@ -5431,15 +6033,15 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5451,23 +6053,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5479,23 +6081,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5507,23 +6109,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5535,23 +6137,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5563,23 +6165,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5591,23 +6193,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5619,23 +6221,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5647,23 +6249,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F86">
         <f t="shared" ref="F86:F101" ca="1" si="7">SUM(C86:E86)</f>
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G86">
         <f t="shared" ref="G86:G101" ca="1" si="8">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5675,23 +6277,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="7"/>
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5703,23 +6305,23 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:E101" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="7"/>
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5731,23 +6333,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="7"/>
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5759,23 +6361,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="7"/>
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5787,23 +6389,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="7"/>
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5815,23 +6417,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="7"/>
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5843,23 +6445,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="7"/>
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5871,23 +6473,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="7"/>
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5899,23 +6501,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="7"/>
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5927,23 +6529,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="7"/>
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5955,23 +6557,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="7"/>
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5983,23 +6585,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="7"/>
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6011,23 +6613,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6039,23 +6641,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6067,23 +6669,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
